--- a/CDC-rapport-jdt/Presentation/Charts.xlsx
+++ b/CDC-rapport-jdt/Presentation/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\CDC-rapport-jdt\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1EF32-384A-4F47-BFED-80A68CB36297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579593AB-70C6-483F-8773-7073B76E9B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC268EDC-F669-42F3-9717-5A10CED21E51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC268EDC-F669-42F3-9717-5A10CED21E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Tache</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Interface utilisateur</t>
-  </si>
-  <si>
-    <t>Vacances</t>
   </si>
   <si>
     <t>Autre</t>
@@ -591,37 +588,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -708,34 +675,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil2!$B$3:$B$11</c:f>
+              <c:f>Feuil2!$B$3:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>JDT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Vacances</c:v>
+                  <c:v>Informer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Informer</c:v>
+                  <c:v>Planifier</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Planifier</c:v>
+                  <c:v>Décider</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Décider</c:v>
+                  <c:v>Réaliser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Réaliser</c:v>
+                  <c:v>Tester</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Tester</c:v>
+                  <c:v>Evaluer</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Evaluer</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Autre</c:v>
                 </c:pt>
               </c:strCache>
@@ -743,35 +707,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil2!$C$3:$C$11</c:f>
+              <c:f>Feuil2!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>383</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
@@ -789,34 +750,31 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil2!$B$14:$B$22</c:f>
+              <c:f>Feuil2!$B$13:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>JDT</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Vacances</c:v>
+                  <c:v>Informer</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Informer</c:v>
+                  <c:v>Planifier</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Planifier</c:v>
+                  <c:v>Décider</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Décider</c:v>
+                  <c:v>Réaliser</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Réaliser</c:v>
+                  <c:v>Tester</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Tester</c:v>
+                  <c:v>Evaluer</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Evaluer</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Autre</c:v>
                 </c:pt>
               </c:strCache>
@@ -900,35 +858,32 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil2!$C$14:$C$22</c:f>
+              <c:f>Feuil2!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>417</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -984,7 +939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -2394,7 +2349,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>512884</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>131884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2793,23 +2748,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DA4238-0713-4171-8ED0-5F7CA98B70EB}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>27</v>
@@ -2817,10 +2772,10 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2828,31 +2783,31 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>383</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -2860,53 +2815,53 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -2914,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -2922,45 +2877,29 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>417</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CDC-rapport-jdt/Presentation/Charts.xlsx
+++ b/CDC-rapport-jdt/Presentation/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\09-P_Appro\PS-Eval\CDC-rapport-jdt\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579593AB-70C6-483F-8773-7073B76E9B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FAA72-8143-41E4-9952-ED9E45A0C054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC268EDC-F669-42F3-9717-5A10CED21E51}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Tache</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>Réalisé</t>
   </si>
+  <si>
+    <t>Imprévus</t>
+  </si>
 </sst>
 </file>
 
@@ -120,11 +123,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,6 +606,41 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Imprévus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JDT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Informer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Planifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Décider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Réaliser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tester</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Autre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
@@ -673,67 +717,38 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil2!$B$3:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>JDT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Informer</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Planifier</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Décider</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Réaliser</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Tester</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Evaluer</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Autre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil2!$C$3:$C$10</c:f>
+              <c:f>Feuil2!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>235</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C0D0-43A5-B86D-060D9674729D}"/>
+              <c16:uniqueId val="{00000001-48BD-4549-9206-674327AC3610}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,31 +765,34 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil2!$B$13:$B$20</c:f>
+              <c:f>Feuil2!$B$14:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>Imprévus</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>JDT</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Informer</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Planifier</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Décider</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Réaliser</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Tester</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Evaluer</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Autre</c:v>
                 </c:pt>
               </c:strCache>
@@ -858,32 +876,35 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Feuil2!$C$13:$C$20</c:f>
+              <c:f>Feuil2!$C$14:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -892,7 +913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C0D0-43A5-B86D-060D9674729D}"/>
+              <c16:uniqueId val="{00000002-48BD-4549-9206-674327AC3610}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1047,6 +1068,370 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Imprévus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JDT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Informer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Planifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Décider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Réaliser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tester</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Autre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1010-47D4-947C-B3415C596BDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$B$14:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Imprévus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JDT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Informer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Planifier</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Décider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Réaliser</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tester</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Evaluer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Autre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$C$14:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1010-47D4-947C-B3415C596BDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1507924080"/>
+        <c:axId val="1318332656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1507924080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318332656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1318332656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507924080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1127,6 +1512,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -2292,6 +2717,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2341,16 +3269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>96715</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>132249</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>512884</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>131884</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>553829</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2370,6 +3298,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>688085</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>688085</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>181622</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31306B1-C438-4F21-9696-8BCDC17C87CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2748,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DA4238-0713-4171-8ED0-5F7CA98B70EB}">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,143 +3727,159 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>27</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="C11">
+        <v>214</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
-      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>221</v>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
